--- a/RegressaoLinearSimples/base.xlsx
+++ b/RegressaoLinearSimples/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fab35cd6e76f526d/Dev_backup/Projetos/Python/learning.ml/RegressaoLinearSimples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{214A4286-A128-43BD-A49D-2EC949048F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E751E63-5002-4773-936E-8E742878F91D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{214A4286-A128-43BD-A49D-2EC949048F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FCEF879-9189-4D19-B279-D927C480DDDF}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F03B84A8-CC8D-4275-B3FF-ED679A952D43}"/>
   </bookViews>
@@ -36,41 +36,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>162.7</t>
   </si>
   <si>
-    <t>151.9</t>
-  </si>
-  <si>
     <t>144.7</t>
   </si>
   <si>
     <t>95.7</t>
   </si>
   <si>
-    <t>103.2</t>
-  </si>
-  <si>
-    <t>109.1</t>
-  </si>
-  <si>
-    <t>115.9</t>
-  </si>
-  <si>
-    <t>122.3</t>
-  </si>
-  <si>
     <t>132.9</t>
   </si>
   <si>
     <t>138.6</t>
   </si>
   <si>
-    <t>157.1</t>
-  </si>
-  <si>
     <t>159.6</t>
   </si>
   <si>
@@ -86,18 +68,9 @@
     <t>96.2</t>
   </si>
   <si>
-    <t>103.4</t>
-  </si>
-  <si>
     <t>108.7</t>
   </si>
   <si>
-    <t>117.5</t>
-  </si>
-  <si>
-    <t>124.1</t>
-  </si>
-  <si>
     <t>135.5</t>
   </si>
   <si>
@@ -105,9 +78,6 @@
   </si>
   <si>
     <t>144.2</t>
-  </si>
-  <si>
-    <t>149.6</t>
   </si>
   <si>
     <t>167.8</t>
@@ -132,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +126,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color rgb="FF5B5C65"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF5B5C65"/>
       <name val="Trebuchet MS"/>
@@ -223,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -234,9 +197,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,279 +515,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1D9253-F5D6-4EE6-B452-8449E63634F6}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>109.1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>115.4</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3-B3</f>
+        <v>6.3000000000000114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B16" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>15</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>16</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
         <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
